--- a/biology/Botanique/Miscanthus/Miscanthus.xlsx
+++ b/biology/Botanique/Miscanthus/Miscanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Miscanthus est un genre de plantes herbacées vivaces de la famille des Poaceae (Graminées) originaire d'Afrique et d'Asie du sud.
-Certaines espèces de miscanthus (dites « herbe à éléphant ») rencontrent un intérêt croissant des secteurs agricoles, industriels et de l'énergie pour leur productivité, pour leur valeur énergétique (biomasse-énergie) et leur teneur en lignocelluloses permettant de l'utiliser dans des matériaux biosourcés[1].
-Fin 2017, l'Union européenne a reconnu les cultures de miscanthus comme pouvant faire partie des surfaces d'intérêt écologique (SIE) de la politique agricole commune[2],[3]. La plante est ensuite intégrée aux aides "éco-régime" de la politique agricole commune de 2023[4],[5].
+Certaines espèces de miscanthus (dites « herbe à éléphant ») rencontrent un intérêt croissant des secteurs agricoles, industriels et de l'énergie pour leur productivité, pour leur valeur énergétique (biomasse-énergie) et leur teneur en lignocelluloses permettant de l'utiliser dans des matériaux biosourcés.
+Fin 2017, l'Union européenne a reconnu les cultures de miscanthus comme pouvant faire partie des surfaces d'intérêt écologique (SIE) de la politique agricole commune,. La plante est ensuite intégrée aux aides "éco-régime" de la politique agricole commune de 2023,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Miscanthus boninensis Nakai ex Honda.
 Miscanthus capensis (Nees) Andersson.
@@ -555,10 +569,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces cultivées présentent de nombreux intérêts, notamment pour la lutte contre l'érosion des sols. Une fois à maturité et récoltée, la plante peut être utilisée comme biocombustible, servir au paillage ou encore comme complément alimentaire animal[6].
-On retrouve également des produits et matériaux issus de la transformation de la plante comme des isolants, des enduits, des colles, des résines[7] ou encore des bétons[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces cultivées présentent de nombreux intérêts, notamment pour la lutte contre l'érosion des sols. Une fois à maturité et récoltée, la plante peut être utilisée comme biocombustible, servir au paillage ou encore comme complément alimentaire animal.
+On retrouve également des produits et matériaux issus de la transformation de la plante comme des isolants, des enduits, des colles, des résines ou encore des bétons.
 </t>
         </is>
       </c>
